--- a/chapterFiles/rdmReview/methodsMetricsList.xlsx
+++ b/chapterFiles/rdmReview/methodsMetricsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Documents/GitHub/myDissertation/chapterFiles/rdmReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31B510-49DD-0247-A30D-2D038F5E764F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9142F993-BF7F-5440-8C63-2B2A72C6342E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="460" windowWidth="19440" windowHeight="17800" xr2:uid="{A0011D32-42EC-1F48-9FD7-C5AF53055802}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A0011D32-42EC-1F48-9FD7-C5AF53055802}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
   <si>
     <t>method</t>
   </si>
@@ -358,13 +358,46 @@
   </si>
   <si>
     <t>carpenter2014new; moustakides2009numerical</t>
+  </si>
+  <si>
+    <t>method-fuzzy synthetic evaluation (FSE)</t>
+  </si>
+  <si>
+    <t>he2008new</t>
+  </si>
+  <si>
+    <t>Moving Detrended Fluctuation Analysis (MDFA)</t>
+  </si>
+  <si>
+    <t>time series shuould have long memory</t>
+  </si>
+  <si>
+    <t>moving t-tests</t>
+  </si>
+  <si>
+    <t>other methods</t>
+  </si>
+  <si>
+    <t>spectrum analysis</t>
+  </si>
+  <si>
+    <t>dimension reduction techniques (e.g., PCA)</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>Sequential/moving t-tests</t>
+  </si>
+  <si>
+    <t>Diffusion filtering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,6 +421,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,6 +458,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,11 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CF4932-FA96-F64D-9E1A-1B2C5D464948}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1583,6 +1623,63 @@
         <v>98</v>
       </c>
     </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/chapterFiles/rdmReview/methodsMetricsList.xlsx
+++ b/chapterFiles/rdmReview/methodsMetricsList.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Documents/GitHub/myDissertation/chapterFiles/rdmReview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jburnett8\Documents\GitHub\myDissertation\chapterFiles\rdmReview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9142F993-BF7F-5440-8C63-2B2A72C6342E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A0011D32-42EC-1F48-9FD7-C5AF53055802}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -396,7 +395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -772,28 +771,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CF4932-FA96-F64D-9E1A-1B2C5D464948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" customWidth="1"/>
     <col min="10" max="11" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -851,7 +850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -868,7 +867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -885,7 +884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -902,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -919,7 +918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -936,7 +935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -953,7 +952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -968,7 +967,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -982,7 +981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -996,7 +995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1562,7 +1561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1609,10 +1608,10 @@
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -1640,42 +1639,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>109</v>
       </c>

--- a/chapterFiles/rdmReview/methodsMetricsList.xlsx
+++ b/chapterFiles/rdmReview/methodsMetricsList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jburnett8\Documents\GitHub\myDissertation\chapterFiles\rdmReview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Documents/GitHub/myDissertation/chapterFiles/rdmReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E031FF-A537-4842-A1CF-0C542DFFB4E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544"/>
+    <workbookView xWindow="-34840" yWindow="1600" windowWidth="19520" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="127">
   <si>
     <t>method</t>
   </si>
@@ -390,13 +385,34 @@
   </si>
   <si>
     <t>Diffusion filtering</t>
+  </si>
+  <si>
+    <t>parparov2017quantifying</t>
+  </si>
+  <si>
+    <t>Online dynamic linear modelling +  time‐varying autoregressive state‐space models (TVARSS)</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>Stability Index of the Ecological Units</t>
+  </si>
+  <si>
+    <t>needs reference state</t>
+  </si>
+  <si>
+    <t>should have high signal-to-noise artio</t>
+  </si>
+  <si>
+    <t>parparov2015quantifying</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,6 +442,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -458,6 +480,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,28 +794,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="3" width="10.796875" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
     <col min="10" max="11" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -850,7 +873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -867,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -884,7 +907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -901,7 +924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -918,7 +941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -935,7 +958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -952,7 +975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -967,7 +990,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -981,7 +1004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -995,7 +1018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -1125,7 +1148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1148,7 +1171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1220,7 +1243,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1266,7 +1289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1286,7 +1309,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -1303,7 +1326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1326,7 +1349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -1340,7 +1363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -1360,7 +1383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1386,7 +1409,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1403,7 +1426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1417,7 +1440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1434,7 +1457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1442,7 +1465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1450,7 +1473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1467,7 +1490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1490,7 +1513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1504,7 +1527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1521,7 +1544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1541,7 +1564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1561,7 +1584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1578,7 +1601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -1592,7 +1615,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -1600,7 +1623,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1611,7 +1634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1622,7 +1645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -1639,42 +1662,73 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>109</v>
       </c>

--- a/chapterFiles/rdmReview/methodsMetricsList.xlsx
+++ b/chapterFiles/rdmReview/methodsMetricsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Documents/GitHub/myDissertation/chapterFiles/rdmReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E031FF-A537-4842-A1CF-0C542DFFB4E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A3185-16AE-D344-8357-1DC32504B590}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34840" yWindow="1600" windowWidth="19520" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24340" yWindow="-120" windowWidth="19520" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>method</t>
   </si>
@@ -406,13 +406,28 @@
   </si>
   <si>
     <t>parparov2015quantifying</t>
+  </si>
+  <si>
+    <t>generalized model</t>
+  </si>
+  <si>
+    <t>lade2012early</t>
+  </si>
+  <si>
+    <t>Threshold Indicator Taxa ANalysis (TITAN)</t>
+  </si>
+  <si>
+    <t>baker2010new</t>
+  </si>
+  <si>
+    <t>requires envrionemntal gradients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,6 +463,12 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1C1D1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -469,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,6 +502,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,7 +821,7 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1723,6 +1745,34 @@
         <v>124</v>
       </c>
     </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>114</v>

--- a/chapterFiles/rdmReview/methodsMetricsList.xlsx
+++ b/chapterFiles/rdmReview/methodsMetricsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Documents/GitHub/myDissertation/chapterFiles/rdmReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A3185-16AE-D344-8357-1DC32504B590}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D830AB1-23FF-CB4E-B4E9-ACC8A294AC77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24340" yWindow="-120" windowWidth="19520" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23220" yWindow="-180" windowWidth="19520" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,18 +255,12 @@
     <t>oerlemans method</t>
   </si>
   <si>
-    <t>Oerlemans, 1978</t>
-  </si>
-  <si>
     <t>no statistic</t>
   </si>
   <si>
     <t>intervention analysis</t>
   </si>
   <si>
-    <t>Francis and Hare (1994)</t>
-  </si>
-  <si>
     <t>steps</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>close shifts bad</t>
   </si>
   <si>
-    <t>(Lanzante, 1996)</t>
-  </si>
-  <si>
     <t>variance</t>
   </si>
   <si>
@@ -421,6 +412,15 @@
   </si>
   <si>
     <t>requires envrionemntal gradients</t>
+  </si>
+  <si>
+    <t>oerlemans1978objective</t>
+  </si>
+  <si>
+    <t>francis1994decadal</t>
+  </si>
+  <si>
+    <t>lanzante1996resistant</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,7 +866,7 @@
         <v>28</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
@@ -1141,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -1204,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -1276,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -1299,7 +1299,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
@@ -1316,10 +1316,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1328,7 +1328,7 @@
         <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" t="s">
         <v>76</v>
-      </c>
-      <c r="L28" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -1382,24 +1382,24 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
       </c>
       <c r="J31" t="s">
         <v>29</v>
@@ -1416,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -1436,7 +1436,7 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
         <v>29</v>
@@ -1456,7 +1456,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>54</v>
@@ -1470,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -1503,13 +1503,13 @@
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -1523,13 +1523,13 @@
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
         <v>29</v>
@@ -1543,7 +1543,7 @@
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s">
         <v>31</v>
@@ -1554,16 +1554,16 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -1577,10 +1577,10 @@
         <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s">
         <v>29</v>
@@ -1600,7 +1600,7 @@
         <v>63</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
         <v>67</v>
@@ -1617,7 +1617,7 @@
         <v>63</v>
       </c>
       <c r="H44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s">
         <v>66</v>
@@ -1625,29 +1625,29 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s">
         <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -1658,18 +1658,18 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -1678,59 +1678,59 @@
         <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L56" t="s">
         <v>122</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L56" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -1739,26 +1739,26 @@
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -1767,20 +1767,20 @@
         <v>29</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
